--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/15/seed5/result_data_RandomForest.xlsx
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.644800000000005</v>
+        <v>-8.826700000000002</v>
       </c>
       <c r="E3" t="n">
-        <v>15.74150000000001</v>
+        <v>16.06359999999999</v>
       </c>
     </row>
     <row r="4">
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6646</v>
+        <v>-10.7704</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.3431</v>
+        <v>-7.360100000000001</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.0164</v>
+        <v>16.02309999999999</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.0475</v>
+        <v>17.20420000000001</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.146199999999991</v>
+        <v>-8.572199999999992</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-11.864</v>
+        <v>-11.94860000000001</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.3576</v>
+        <v>15.5898</v>
       </c>
     </row>
     <row r="31">
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.691499999999998</v>
+        <v>-9.293699999999991</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.8454</v>
+        <v>-12.4215</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.794899999999993</v>
+        <v>-8.864899999999995</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.17460000000001</v>
+        <v>-12.807</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.937200000000005</v>
+        <v>-8.141399999999994</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.4143</v>
+        <v>-12.0965</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.43589999999999</v>
+        <v>16.12149999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.4006</v>
+        <v>-7.384100000000002</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.66439999999999</v>
+        <v>-14.50489999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.19699999999999</v>
+        <v>16.121</v>
       </c>
     </row>
     <row r="48">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.719999999999996</v>
+        <v>-7.670799999999997</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-13.1804</v>
+        <v>-13.08200000000001</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.68529999999999</v>
+        <v>-13.42549999999999</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.81989999999999</v>
+        <v>-12.35309999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.377499999999996</v>
+        <v>-8.498699999999998</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.51670000000001</v>
+        <v>16.5268</v>
       </c>
     </row>
     <row r="59">
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.52970000000001</v>
+        <v>-10.62460000000001</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.2421</v>
+        <v>-11.3826</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.3505</v>
+        <v>-11.42510000000001</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.63660000000003</v>
+        <v>16.54070000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.004099999999994</v>
+        <v>-7.102899999999998</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.63280000000001</v>
+        <v>-14.03220000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.841099999999996</v>
+        <v>-8.783699999999996</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.3854</v>
+        <v>16.57699999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.35349999999999</v>
+        <v>-13.57649999999999</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.39820000000002</v>
+        <v>17.36590000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1981,13 +1981,13 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.5361</v>
+        <v>-10.40139999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.86840000000002</v>
+        <v>17.93940000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.93230000000002</v>
+        <v>18.02070000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.3267</v>
+        <v>-11.1769</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.765</v>
+        <v>15.09569999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.5045</v>
+        <v>-13.512</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.058400000000004</v>
+        <v>-8.292200000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.841000000000006</v>
+        <v>-8.134400000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.55030000000001</v>
+        <v>16.56210000000002</v>
       </c>
     </row>
   </sheetData>
